--- a/Örnek 20 - Toplam - KDV.xlsx
+++ b/Örnek 20 - Toplam - KDV.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kagan\Desktop\OneDrive_2018-12-18\Excel Uygulama\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mamis\Desktop\Excel 2\Excel - MAH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE8E4C9E-1C62-4C1B-93A5-A5D9A7604595}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{35679678-3494-46F3-B2A5-6618BB12C732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9480" tabRatio="698"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" tabRatio="698" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1-sipariş(b)" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="114210"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Malzeme Adı</t>
   </si>
@@ -96,15 +99,21 @@
   </si>
   <si>
     <t>Bölüm:</t>
+  </si>
+  <si>
+    <t>Muhammed Ali Harmancı</t>
+  </si>
+  <si>
+    <t>Yönetim Bilişim Sistemleri</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="179" formatCode="_-* #,##0.00\ _Y_T_L_-;\-* #,##0.00\ _Y_T_L_-;_-* &quot;-&quot;??\ _Y_T_L_-;_-@_-"/>
-    <numFmt numFmtId="181" formatCode="_-* #,##0\ _Y_T_L_-;\-* #,##0\ _Y_T_L_-;_-* &quot;-&quot;??\ _Y_T_L_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _Y_T_L_-;\-* #,##0.00\ _Y_T_L_-;_-* &quot;-&quot;??\ _Y_T_L_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0\ _Y_T_L_-;\-* #,##0\ _Y_T_L_-;_-* &quot;-&quot;??\ _Y_T_L_-;_-@_-"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -416,15 +425,15 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -789,28 +798,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
-    <col min="5" max="5" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.140625" customWidth="1"/>
-    <col min="7" max="7" width="3.7109375" style="5" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.125" customWidth="1"/>
+    <col min="2" max="2" width="8.75" customWidth="1"/>
+    <col min="3" max="3" width="25.875" customWidth="1"/>
+    <col min="4" max="4" width="20.625" customWidth="1"/>
+    <col min="5" max="5" width="32.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.125" customWidth="1"/>
+    <col min="7" max="7" width="3.75" style="5" customWidth="1"/>
+    <col min="10" max="10" width="11.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="3:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="3:13" ht="13.6" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="3:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C2" s="13" t="s">
         <v>0</v>
       </c>
@@ -825,7 +834,7 @@
       </c>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="3:13" ht="34.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="3:13" ht="34" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C3" s="9" t="s">
         <v>5</v>
       </c>
@@ -835,7 +844,10 @@
       <c r="E3" s="12">
         <v>5</v>
       </c>
-      <c r="F3" s="16"/>
+      <c r="F3" s="16">
+        <f>D3*E3</f>
+        <v>100</v>
+      </c>
       <c r="G3" s="8"/>
       <c r="H3" s="28" t="s">
         <v>15</v>
@@ -845,7 +857,7 @@
       <c r="K3" s="29"/>
       <c r="L3" s="30"/>
     </row>
-    <row r="4" spans="3:13" ht="33.75" x14ac:dyDescent="0.5">
+    <row r="4" spans="3:13" ht="33.299999999999997" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" s="9" t="s">
         <v>12</v>
       </c>
@@ -855,10 +867,13 @@
       <c r="E4" s="12">
         <v>9</v>
       </c>
-      <c r="F4" s="16"/>
+      <c r="F4" s="16">
+        <f t="shared" ref="F4:F10" si="0">D4*E4</f>
+        <v>17100</v>
+      </c>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="3:13" ht="33.75" x14ac:dyDescent="0.5">
+    <row r="5" spans="3:13" ht="33.299999999999997" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" s="9" t="s">
         <v>6</v>
       </c>
@@ -868,16 +883,21 @@
       <c r="E5" s="12">
         <v>2</v>
       </c>
-      <c r="F5" s="16"/>
+      <c r="F5" s="16">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="G5" s="8"/>
       <c r="J5" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="31"/>
+      <c r="K5" s="31">
+        <v>20215070055</v>
+      </c>
       <c r="L5" s="31"/>
       <c r="M5" s="31"/>
     </row>
-    <row r="6" spans="3:13" ht="33.75" x14ac:dyDescent="0.5">
+    <row r="6" spans="3:13" ht="33.299999999999997" x14ac:dyDescent="0.55000000000000004">
       <c r="C6" s="9" t="s">
         <v>7</v>
       </c>
@@ -887,16 +907,21 @@
       <c r="E6" s="12">
         <v>8</v>
       </c>
-      <c r="F6" s="16"/>
+      <c r="F6" s="16">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
       <c r="G6" s="8"/>
       <c r="J6" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="31"/>
+      <c r="K6" s="31" t="s">
+        <v>22</v>
+      </c>
       <c r="L6" s="31"/>
       <c r="M6" s="31"/>
     </row>
-    <row r="7" spans="3:13" ht="33.75" x14ac:dyDescent="0.5">
+    <row r="7" spans="3:13" ht="33.299999999999997" x14ac:dyDescent="0.55000000000000004">
       <c r="C7" s="9" t="s">
         <v>8</v>
       </c>
@@ -906,16 +931,21 @@
       <c r="E7" s="12">
         <v>2</v>
       </c>
-      <c r="F7" s="16"/>
+      <c r="F7" s="16">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
       <c r="G7" s="8"/>
       <c r="J7" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="31"/>
+      <c r="K7" s="31" t="s">
+        <v>23</v>
+      </c>
       <c r="L7" s="31"/>
       <c r="M7" s="31"/>
     </row>
-    <row r="8" spans="3:13" ht="33.75" x14ac:dyDescent="0.5">
+    <row r="8" spans="3:13" ht="33.299999999999997" x14ac:dyDescent="0.55000000000000004">
       <c r="C8" s="9" t="s">
         <v>9</v>
       </c>
@@ -925,10 +955,13 @@
       <c r="E8" s="12">
         <v>8</v>
       </c>
-      <c r="F8" s="16"/>
+      <c r="F8" s="16">
+        <f t="shared" si="0"/>
+        <v>7120</v>
+      </c>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="3:13" ht="33.75" x14ac:dyDescent="0.5">
+    <row r="9" spans="3:13" ht="33.299999999999997" x14ac:dyDescent="0.55000000000000004">
       <c r="C9" s="9" t="s">
         <v>10</v>
       </c>
@@ -938,10 +971,13 @@
       <c r="E9" s="12">
         <v>6</v>
       </c>
-      <c r="F9" s="16"/>
+      <c r="F9" s="16">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="3:13" ht="34.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="3:13" ht="34" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C10" s="10" t="s">
         <v>14</v>
       </c>
@@ -951,16 +987,22 @@
       <c r="E10" s="18">
         <v>4</v>
       </c>
-      <c r="F10" s="16"/>
+      <c r="F10" s="16">
+        <f t="shared" si="0"/>
+        <v>1800</v>
+      </c>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="3:13" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="11" spans="3:13" ht="46.9" thickBot="1" x14ac:dyDescent="0.8">
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="22"/>
+      <c r="F11" s="22">
+        <f>SUM(F3:F10)</f>
+        <v>27480</v>
+      </c>
       <c r="G11" s="6"/>
       <c r="H11" s="24" t="s">
         <v>17</v>
@@ -970,13 +1012,16 @@
       <c r="K11" s="25"/>
       <c r="L11" s="26"/>
     </row>
-    <row r="12" spans="3:13" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="12" spans="3:13" ht="46.9" thickBot="1" x14ac:dyDescent="0.8">
       <c r="C12" s="1"/>
       <c r="D12" s="4"/>
       <c r="E12" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="20"/>
+      <c r="F12" s="20">
+        <f>F11*0.08</f>
+        <v>2198.4</v>
+      </c>
       <c r="G12" s="6"/>
       <c r="H12" s="24" t="s">
         <v>18</v>
@@ -986,13 +1031,16 @@
       <c r="K12" s="25"/>
       <c r="L12" s="26"/>
     </row>
-    <row r="13" spans="3:13" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="13" spans="3:13" ht="46.9" thickBot="1" x14ac:dyDescent="0.8">
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="20"/>
+      <c r="F13" s="20">
+        <f>SUM(F11:F12)</f>
+        <v>29678.400000000001</v>
+      </c>
       <c r="G13" s="6"/>
       <c r="H13" s="27" t="s">
         <v>16</v>
